--- a/GAN/good_result.xlsx
+++ b/GAN/good_result.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tobiasbudig/Documents/Programmieren/python/attack-hypotheses-generation/GAN/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B9BE0A0-E3FB-F142-B0BB-7685966C9879}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-43580" yWindow="-7220" windowWidth="30960" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -79,8 +85,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -141,8 +147,27 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -189,7 +214,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -221,9 +246,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -255,6 +298,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -430,14 +491,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U193"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -499,7 +562,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -564,72 +627,72 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G3">
         <v>-1</v>
       </c>
       <c r="H3">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -637,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -649,7 +712,7 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -664,28 +727,28 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -694,7 +757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -759,7 +822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -824,7 +887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -844,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -874,7 +937,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R7">
         <v>0</v>
@@ -889,7 +952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -954,7 +1017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -962,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -974,7 +1037,7 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -989,7 +1052,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -1004,10 +1067,10 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R9">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S9">
         <v>0</v>
@@ -1019,7 +1082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1084,7 +1147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1149,12 +1212,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -1214,7 +1277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1279,7 +1342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1344,7 +1407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1358,37 +1421,37 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="H15">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1403,13 +1466,13 @@
         <v>0</v>
       </c>
       <c r="T15">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="U15">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1474,7 +1537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1539,7 +1602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1604,116 +1667,116 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E19">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
       <c r="R19">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S19">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T19">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="U19">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E20">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="H20">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P20">
         <v>0</v>
@@ -1728,13 +1791,13 @@
         <v>0</v>
       </c>
       <c r="T20">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="U20">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1799,7 +1862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1864,7 +1927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1929,51 +1992,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E24">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P24">
         <v>0</v>
@@ -1988,13 +2051,13 @@
         <v>0</v>
       </c>
       <c r="T24">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="U24">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2002,64 +2065,64 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E25">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G25">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H25">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R25">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S25">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T25">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="U25">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2124,7 +2187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2189,72 +2252,72 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C28">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D28">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E28">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F28">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G28">
         <v>0</v>
       </c>
       <c r="H28">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I28">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J28">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K28">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L28">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M28">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N28">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="O28">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P28">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q28">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R28">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S28">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T28">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="U28">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -2319,51 +2382,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C30">
         <v>0</v>
       </c>
       <c r="D30">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E30">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F30">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G30">
         <v>1</v>
       </c>
       <c r="H30">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I30">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J30">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K30">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L30">
         <v>0</v>
       </c>
       <c r="M30">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N30">
         <v>0</v>
       </c>
       <c r="O30">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P30">
         <v>0</v>
@@ -2378,13 +2441,13 @@
         <v>0</v>
       </c>
       <c r="T30">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="U30">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -2392,64 +2455,64 @@
         <v>0</v>
       </c>
       <c r="C31">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D31">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E31">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F31">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G31">
         <v>0</v>
       </c>
       <c r="H31">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I31">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J31">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K31">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L31">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M31">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N31">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="O31">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P31">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q31">
         <v>0</v>
       </c>
       <c r="R31">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S31">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T31">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="U31">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -2514,7 +2577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:21">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -2579,7 +2642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:21">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -2644,72 +2707,72 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:21">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C35">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D35">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E35">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F35">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G35">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H35">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I35">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J35">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K35">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L35">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M35">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N35">
         <v>0</v>
       </c>
       <c r="O35">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P35">
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R35">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="U35">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -2774,7 +2837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:21">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -2839,7 +2902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:21">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -2850,40 +2913,40 @@
         <v>0</v>
       </c>
       <c r="D38">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E38">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F38">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G38">
         <v>0</v>
       </c>
       <c r="H38">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I38">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J38">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K38">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L38">
         <v>0</v>
       </c>
       <c r="M38">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N38">
         <v>0</v>
       </c>
       <c r="O38">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P38">
         <v>0</v>
@@ -2898,57 +2961,57 @@
         <v>0</v>
       </c>
       <c r="T38">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="U38">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C39">
         <v>0</v>
       </c>
       <c r="D39">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E39">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F39">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G39">
         <v>0</v>
       </c>
       <c r="H39">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I39">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J39">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K39">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L39">
         <v>0</v>
       </c>
       <c r="M39">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N39">
         <v>0</v>
       </c>
       <c r="O39">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P39">
         <v>0</v>
@@ -2963,21 +3026,21 @@
         <v>0</v>
       </c>
       <c r="T39">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="U39">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C40">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -3004,28 +3067,28 @@
         <v>0</v>
       </c>
       <c r="L40">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M40">
         <v>0</v>
       </c>
       <c r="N40">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="O40">
         <v>0</v>
       </c>
       <c r="P40">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q40">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R40">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S40">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T40">
         <v>0</v>
@@ -3034,12 +3097,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:21">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -3099,7 +3162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:21">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -3164,7 +3227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:21">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -3229,7 +3292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:21">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -3294,7 +3357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:21">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -3359,7 +3422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:21">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -3424,7 +3487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:21">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -3489,7 +3552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:21">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -3497,7 +3560,7 @@
         <v>0</v>
       </c>
       <c r="C48">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -3509,7 +3572,7 @@
         <v>0</v>
       </c>
       <c r="G48">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H48">
         <v>0</v>
@@ -3524,28 +3587,28 @@
         <v>0</v>
       </c>
       <c r="L48">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M48">
         <v>0</v>
       </c>
       <c r="N48">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="O48">
         <v>0</v>
       </c>
       <c r="P48">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q48">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R48">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S48">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T48">
         <v>0</v>
@@ -3554,7 +3617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:21">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -3619,72 +3682,72 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:21">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C50">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D50">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E50">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F50">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G50">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H50">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I50">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J50">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K50">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L50">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M50">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N50">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="O50">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P50">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q50">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R50">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S50">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T50">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="U50">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -3749,7 +3812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:21">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -3814,7 +3877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:21">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -3822,72 +3885,72 @@
         <v>0</v>
       </c>
       <c r="C53">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D53">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E53">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F53">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G53">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H53">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I53">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J53">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K53">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L53">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M53">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N53">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="O53">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P53">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q53">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R53">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S53">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T53">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="U53">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C54">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -3899,7 +3962,7 @@
         <v>0</v>
       </c>
       <c r="G54">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H54">
         <v>0</v>
@@ -3914,7 +3977,7 @@
         <v>0</v>
       </c>
       <c r="L54">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M54">
         <v>0</v>
@@ -3929,7 +3992,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R54">
         <v>0</v>
@@ -3944,7 +4007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:21">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -3952,7 +4015,7 @@
         <v>0</v>
       </c>
       <c r="C55">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -3964,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="G55">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -3985,22 +4048,22 @@
         <v>0</v>
       </c>
       <c r="N55">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="O55">
         <v>0</v>
       </c>
       <c r="P55">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q55">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R55">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S55">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T55">
         <v>0</v>
@@ -4009,7 +4072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:21">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -4023,37 +4086,37 @@
         <v>0</v>
       </c>
       <c r="E56">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F56">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G56">
         <v>1</v>
       </c>
       <c r="H56">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I56">
         <v>0</v>
       </c>
       <c r="J56">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K56">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L56">
         <v>0</v>
       </c>
       <c r="M56">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N56">
         <v>0</v>
       </c>
       <c r="O56">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P56">
         <v>0</v>
@@ -4068,78 +4131,78 @@
         <v>0</v>
       </c>
       <c r="T56">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="U56">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C57">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D57">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E57">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F57">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G57">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H57">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I57">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J57">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K57">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L57">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M57">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N57">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="O57">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P57">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q57">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R57">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S57">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T57">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="U57">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -4204,7 +4267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:21">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -4269,72 +4332,72 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:21">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C60">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D60">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E60">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F60">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G60">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H60">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I60">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J60">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K60">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L60">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M60">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N60">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="O60">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P60">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q60">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R60">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S60">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T60">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="U60">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -4399,7 +4462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:21">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -4464,72 +4527,72 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:21">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C63">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D63">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E63">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F63">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G63">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H63">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I63">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J63">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K63">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L63">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M63">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N63">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="O63">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P63">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q63">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R63">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S63">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T63">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="U63">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -4594,7 +4657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:21">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -4659,7 +4722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:21">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -4673,31 +4736,31 @@
         <v>0</v>
       </c>
       <c r="E66">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F66">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G66">
         <v>1</v>
       </c>
       <c r="H66">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I66">
         <v>0</v>
       </c>
       <c r="J66">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K66">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L66">
         <v>0</v>
       </c>
       <c r="M66">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N66">
         <v>0</v>
@@ -4718,13 +4781,13 @@
         <v>0</v>
       </c>
       <c r="T66">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="U66">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -4744,7 +4807,7 @@
         <v>0</v>
       </c>
       <c r="G67">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H67">
         <v>0</v>
@@ -4774,7 +4837,7 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R67">
         <v>0</v>
@@ -4789,7 +4852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:21">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -4854,7 +4917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:21">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -4919,7 +4982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:21">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -4984,7 +5047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:21">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -5049,7 +5112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:21">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -5069,7 +5132,7 @@
         <v>0</v>
       </c>
       <c r="G72">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H72">
         <v>0</v>
@@ -5114,7 +5177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:21">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -5179,72 +5242,72 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:21">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>72</v>
       </c>
       <c r="B74">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C74">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D74">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E74">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F74">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G74">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H74">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I74">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J74">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K74">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L74">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M74">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N74">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="O74">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P74">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q74">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R74">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S74">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T74">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="U74">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -5309,7 +5372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:21">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -5317,64 +5380,64 @@
         <v>0</v>
       </c>
       <c r="C76">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D76">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E76">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F76">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G76">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H76">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I76">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J76">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K76">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L76">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M76">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N76">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="O76">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P76">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q76">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R76">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S76">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T76">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="U76">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -5439,72 +5502,72 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:21">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>76</v>
       </c>
       <c r="B78">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C78">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D78">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E78">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F78">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G78">
         <v>-1</v>
       </c>
       <c r="H78">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I78">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J78">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K78">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L78">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M78">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N78">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="O78">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P78">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q78">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R78">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S78">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T78">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="U78">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -5569,12 +5632,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:21">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>78</v>
       </c>
       <c r="B80">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C80">
         <v>1</v>
@@ -5634,7 +5697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:21">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -5699,7 +5762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:21">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -5764,7 +5827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:21">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -5772,64 +5835,64 @@
         <v>0</v>
       </c>
       <c r="C83">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D83">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E83">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F83">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G83">
         <v>0</v>
       </c>
       <c r="H83">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I83">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J83">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K83">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L83">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M83">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N83">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="O83">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P83">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q83">
         <v>0</v>
       </c>
       <c r="R83">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S83">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T83">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="U83">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -5837,7 +5900,7 @@
         <v>0</v>
       </c>
       <c r="C84">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D84">
         <v>0</v>
@@ -5849,7 +5912,7 @@
         <v>0</v>
       </c>
       <c r="G84">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H84">
         <v>0</v>
@@ -5870,7 +5933,7 @@
         <v>0</v>
       </c>
       <c r="N84">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="O84">
         <v>0</v>
@@ -5879,7 +5942,7 @@
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R84">
         <v>0</v>
@@ -5894,7 +5957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:21">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -5902,7 +5965,7 @@
         <v>0</v>
       </c>
       <c r="C85">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D85">
         <v>0</v>
@@ -5914,7 +5977,7 @@
         <v>0</v>
       </c>
       <c r="G85">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H85">
         <v>0</v>
@@ -5929,7 +5992,7 @@
         <v>0</v>
       </c>
       <c r="L85">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M85">
         <v>0</v>
@@ -5944,7 +6007,7 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R85">
         <v>0</v>
@@ -5959,7 +6022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:21">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -5967,7 +6030,7 @@
         <v>0</v>
       </c>
       <c r="C86">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D86">
         <v>0</v>
@@ -5979,7 +6042,7 @@
         <v>0</v>
       </c>
       <c r="G86">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H86">
         <v>0</v>
@@ -6009,7 +6072,7 @@
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R86">
         <v>0</v>
@@ -6024,7 +6087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:21">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -6032,64 +6095,64 @@
         <v>0</v>
       </c>
       <c r="C87">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D87">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E87">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F87">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G87">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H87">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I87">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J87">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K87">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L87">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M87">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N87">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="O87">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P87">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q87">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R87">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S87">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T87">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="U87">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -6109,7 +6172,7 @@
         <v>0</v>
       </c>
       <c r="G88">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H88">
         <v>0</v>
@@ -6139,7 +6202,7 @@
         <v>0</v>
       </c>
       <c r="Q88">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R88">
         <v>0</v>
@@ -6154,7 +6217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:21">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -6174,7 +6237,7 @@
         <v>0</v>
       </c>
       <c r="G89">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H89">
         <v>0</v>
@@ -6219,7 +6282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:21">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -6284,12 +6347,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:21">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>89</v>
       </c>
       <c r="B91">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C91">
         <v>0</v>
@@ -6349,7 +6412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:21">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -6414,7 +6477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:21">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -6422,7 +6485,7 @@
         <v>0</v>
       </c>
       <c r="C93">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D93">
         <v>0</v>
@@ -6449,28 +6512,28 @@
         <v>0</v>
       </c>
       <c r="L93">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M93">
         <v>0</v>
       </c>
       <c r="N93">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="O93">
         <v>0</v>
       </c>
       <c r="P93">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q93">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R93">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S93">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T93">
         <v>0</v>
@@ -6479,7 +6542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:21">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -6544,7 +6607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:21">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -6609,7 +6672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:21">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -6617,7 +6680,7 @@
         <v>0</v>
       </c>
       <c r="C96">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D96">
         <v>0</v>
@@ -6629,7 +6692,7 @@
         <v>0</v>
       </c>
       <c r="G96">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H96">
         <v>0</v>
@@ -6659,7 +6722,7 @@
         <v>0</v>
       </c>
       <c r="Q96">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R96">
         <v>0</v>
@@ -6674,7 +6737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:21">
+    <row r="97" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -6682,64 +6745,64 @@
         <v>0</v>
       </c>
       <c r="C97">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D97">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E97">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F97">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G97">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H97">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I97">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J97">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K97">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L97">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M97">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N97">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="O97">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P97">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q97">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R97">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S97">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T97">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="U97">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -6804,77 +6867,77 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:21">
+    <row r="99" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>97</v>
       </c>
       <c r="B99">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C99">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D99">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E99">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F99">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G99">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H99">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I99">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J99">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K99">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L99">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M99">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N99">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="O99">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P99">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q99">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R99">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S99">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T99">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="U99">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>98</v>
       </c>
       <c r="B100">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C100">
         <v>0</v>
@@ -6934,7 +6997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:21">
+    <row r="101" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -6954,7 +7017,7 @@
         <v>0</v>
       </c>
       <c r="G101">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H101">
         <v>0</v>
@@ -6984,7 +7047,7 @@
         <v>0</v>
       </c>
       <c r="Q101">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R101">
         <v>0</v>
@@ -6999,7 +7062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:21">
+    <row r="102" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -7007,10 +7070,10 @@
         <v>0</v>
       </c>
       <c r="C102">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D102">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E102">
         <v>0</v>
@@ -7019,7 +7082,7 @@
         <v>0</v>
       </c>
       <c r="G102">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H102">
         <v>0</v>
@@ -7034,28 +7097,28 @@
         <v>0</v>
       </c>
       <c r="L102">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M102">
         <v>0</v>
       </c>
       <c r="N102">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="O102">
         <v>0</v>
       </c>
       <c r="P102">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q102">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R102">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S102">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T102">
         <v>0</v>
@@ -7064,7 +7127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:21">
+    <row r="103" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -7072,64 +7135,64 @@
         <v>0</v>
       </c>
       <c r="C103">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D103">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E103">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F103">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G103">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H103">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I103">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J103">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K103">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L103">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M103">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N103">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="O103">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P103">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q103">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R103">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S103">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T103">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="U103">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -7194,7 +7257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:21">
+    <row r="105" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -7202,7 +7265,7 @@
         <v>0</v>
       </c>
       <c r="C105">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D105">
         <v>0</v>
@@ -7229,28 +7292,28 @@
         <v>0</v>
       </c>
       <c r="L105">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M105">
         <v>0</v>
       </c>
       <c r="N105">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="O105">
         <v>0</v>
       </c>
       <c r="P105">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q105">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R105">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S105">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T105">
         <v>0</v>
@@ -7259,12 +7322,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:21">
+    <row r="106" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>104</v>
       </c>
       <c r="B106">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C106">
         <v>0</v>
@@ -7273,37 +7336,37 @@
         <v>0</v>
       </c>
       <c r="E106">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F106">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G106">
         <v>0</v>
       </c>
       <c r="H106">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I106">
         <v>0</v>
       </c>
       <c r="J106">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K106">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L106">
         <v>0</v>
       </c>
       <c r="M106">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N106">
         <v>0</v>
       </c>
       <c r="O106">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P106">
         <v>0</v>
@@ -7318,13 +7381,13 @@
         <v>0</v>
       </c>
       <c r="T106">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="U106">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -7389,7 +7452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:21">
+    <row r="108" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -7454,7 +7517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:21">
+    <row r="109" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -7462,64 +7525,64 @@
         <v>0</v>
       </c>
       <c r="C109">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D109">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E109">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F109">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G109">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H109">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I109">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J109">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K109">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L109">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M109">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N109">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="O109">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P109">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q109">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R109">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S109">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T109">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="U109">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -7584,7 +7647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:21">
+    <row r="111" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -7649,7 +7712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:21">
+    <row r="112" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -7714,7 +7777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:21">
+    <row r="113" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -7779,7 +7842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:21">
+    <row r="114" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -7799,7 +7862,7 @@
         <v>0</v>
       </c>
       <c r="G114">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H114">
         <v>0</v>
@@ -7844,7 +7907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:21">
+    <row r="115" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -7909,72 +7972,72 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:21">
+    <row r="116" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>114</v>
       </c>
       <c r="B116">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C116">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D116">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E116">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F116">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G116">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H116">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I116">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J116">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K116">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L116">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M116">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N116">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="O116">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P116">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q116">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R116">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S116">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T116">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="U116">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -8039,7 +8102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:21">
+    <row r="118" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -8104,7 +8167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:21">
+    <row r="119" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -8169,7 +8232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:21">
+    <row r="120" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -8234,7 +8297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:21">
+    <row r="121" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -8299,51 +8362,51 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:21">
+    <row r="122" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>120</v>
       </c>
       <c r="B122">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C122">
         <v>0</v>
       </c>
       <c r="D122">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E122">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F122">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G122">
         <v>1</v>
       </c>
       <c r="H122">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I122">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J122">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K122">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L122">
         <v>0</v>
       </c>
       <c r="M122">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N122">
         <v>0</v>
       </c>
       <c r="O122">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P122">
         <v>0</v>
@@ -8358,78 +8421,78 @@
         <v>0</v>
       </c>
       <c r="T122">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="U122">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>121</v>
       </c>
       <c r="B123">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C123">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D123">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E123">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F123">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G123">
         <v>0</v>
       </c>
       <c r="H123">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I123">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J123">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K123">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L123">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M123">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N123">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="O123">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P123">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q123">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R123">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S123">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T123">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="U123">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -8440,40 +8503,40 @@
         <v>0</v>
       </c>
       <c r="D124">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E124">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F124">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G124">
         <v>1</v>
       </c>
       <c r="H124">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I124">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J124">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K124">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L124">
         <v>0</v>
       </c>
       <c r="M124">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N124">
         <v>0</v>
       </c>
       <c r="O124">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P124">
         <v>0</v>
@@ -8488,148 +8551,148 @@
         <v>0</v>
       </c>
       <c r="T124">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="U124">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>123</v>
       </c>
       <c r="B125">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C125">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D125">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E125">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F125">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G125">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H125">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I125">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J125">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K125">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L125">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M125">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N125">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="O125">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P125">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q125">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R125">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S125">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T125">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="U125">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>124</v>
       </c>
       <c r="B126">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C126">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D126">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E126">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F126">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G126">
         <v>0</v>
       </c>
       <c r="H126">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I126">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J126">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K126">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L126">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M126">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N126">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="O126">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P126">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q126">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R126">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S126">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T126">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="U126">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>125</v>
       </c>
       <c r="B127">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C127">
         <v>0</v>
@@ -8638,37 +8701,37 @@
         <v>0</v>
       </c>
       <c r="E127">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F127">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G127">
         <v>1</v>
       </c>
       <c r="H127">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I127">
         <v>0</v>
       </c>
       <c r="J127">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K127">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L127">
         <v>0</v>
       </c>
       <c r="M127">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N127">
         <v>0</v>
       </c>
       <c r="O127">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P127">
         <v>0</v>
@@ -8683,13 +8746,13 @@
         <v>0</v>
       </c>
       <c r="T127">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="U127">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -8754,51 +8817,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:21">
+    <row r="129" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>127</v>
       </c>
       <c r="B129">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C129">
         <v>0</v>
       </c>
       <c r="D129">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E129">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F129">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G129">
         <v>1</v>
       </c>
       <c r="H129">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I129">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J129">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K129">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L129">
         <v>0</v>
       </c>
       <c r="M129">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N129">
         <v>0</v>
       </c>
       <c r="O129">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P129">
         <v>0</v>
@@ -8813,78 +8876,78 @@
         <v>0</v>
       </c>
       <c r="T129">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="U129">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>128</v>
       </c>
       <c r="B130">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C130">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D130">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E130">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F130">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G130">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H130">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I130">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J130">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K130">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L130">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M130">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N130">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="O130">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P130">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q130">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R130">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S130">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T130">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="U130">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -8949,51 +9012,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:21">
+    <row r="132" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>130</v>
       </c>
       <c r="B132">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C132">
         <v>0</v>
       </c>
       <c r="D132">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E132">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F132">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G132">
         <v>0</v>
       </c>
       <c r="H132">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I132">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J132">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K132">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L132">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M132">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N132">
         <v>0</v>
       </c>
       <c r="O132">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P132">
         <v>0</v>
@@ -9008,13 +9071,13 @@
         <v>0</v>
       </c>
       <c r="T132">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="U132">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -9079,7 +9142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:21">
+    <row r="134" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -9144,7 +9207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:21">
+    <row r="135" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -9152,64 +9215,64 @@
         <v>0</v>
       </c>
       <c r="C135">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D135">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E135">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F135">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G135">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H135">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I135">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J135">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K135">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L135">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M135">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N135">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="O135">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P135">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q135">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R135">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S135">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T135">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="U135">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -9274,7 +9337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:21">
+    <row r="137" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -9339,7 +9402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:21">
+    <row r="138" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -9404,7 +9467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:21">
+    <row r="139" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -9424,7 +9487,7 @@
         <v>0</v>
       </c>
       <c r="G139">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H139">
         <v>0</v>
@@ -9454,7 +9517,7 @@
         <v>0</v>
       </c>
       <c r="Q139">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R139">
         <v>0</v>
@@ -9469,7 +9532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:21">
+    <row r="140" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -9534,7 +9597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:21">
+    <row r="141" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -9599,7 +9662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:21">
+    <row r="142" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -9664,7 +9727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:21">
+    <row r="143" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -9729,7 +9792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:21">
+    <row r="144" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -9737,7 +9800,7 @@
         <v>0</v>
       </c>
       <c r="C144">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D144">
         <v>0</v>
@@ -9749,7 +9812,7 @@
         <v>0</v>
       </c>
       <c r="G144">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H144">
         <v>0</v>
@@ -9770,7 +9833,7 @@
         <v>0</v>
       </c>
       <c r="N144">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="O144">
         <v>0</v>
@@ -9779,7 +9842,7 @@
         <v>0</v>
       </c>
       <c r="Q144">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R144">
         <v>0</v>
@@ -9794,12 +9857,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:21">
+    <row r="145" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>143</v>
       </c>
       <c r="B145">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C145">
         <v>0</v>
@@ -9859,7 +9922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:21">
+    <row r="146" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -9867,7 +9930,7 @@
         <v>0</v>
       </c>
       <c r="C146">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D146">
         <v>0</v>
@@ -9879,7 +9942,7 @@
         <v>0</v>
       </c>
       <c r="G146">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H146">
         <v>0</v>
@@ -9894,28 +9957,28 @@
         <v>0</v>
       </c>
       <c r="L146">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M146">
         <v>0</v>
       </c>
       <c r="N146">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="O146">
         <v>0</v>
       </c>
       <c r="P146">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q146">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R146">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S146">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T146">
         <v>0</v>
@@ -9924,7 +9987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:21">
+    <row r="147" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -9932,64 +9995,64 @@
         <v>0</v>
       </c>
       <c r="C147">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D147">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E147">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F147">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G147">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H147">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I147">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J147">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K147">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L147">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M147">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N147">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="O147">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P147">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q147">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R147">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S147">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T147">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="U147">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -9997,7 +10060,7 @@
         <v>0</v>
       </c>
       <c r="C148">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D148">
         <v>0</v>
@@ -10009,7 +10072,7 @@
         <v>0</v>
       </c>
       <c r="G148">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H148">
         <v>0</v>
@@ -10039,7 +10102,7 @@
         <v>0</v>
       </c>
       <c r="Q148">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R148">
         <v>0</v>
@@ -10054,7 +10117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:21">
+    <row r="149" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -10119,7 +10182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:21">
+    <row r="150" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -10184,7 +10247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:21">
+    <row r="151" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -10192,64 +10255,64 @@
         <v>0</v>
       </c>
       <c r="C151">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D151">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E151">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F151">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G151">
         <v>-1</v>
       </c>
       <c r="H151">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I151">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J151">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K151">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L151">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M151">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N151">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="O151">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P151">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q151">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R151">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S151">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T151">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="U151">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -10314,7 +10377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:21">
+    <row r="153" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -10379,51 +10442,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:21">
+    <row r="154" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>152</v>
       </c>
       <c r="B154">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C154">
         <v>1</v>
       </c>
       <c r="D154">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E154">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F154">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G154">
         <v>1</v>
       </c>
       <c r="H154">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I154">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J154">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K154">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L154">
         <v>0</v>
       </c>
       <c r="M154">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N154">
         <v>0</v>
       </c>
       <c r="O154">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P154">
         <v>0</v>
@@ -10438,13 +10501,13 @@
         <v>0</v>
       </c>
       <c r="T154">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="U154">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -10452,64 +10515,64 @@
         <v>0</v>
       </c>
       <c r="C155">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D155">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E155">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F155">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G155">
         <v>-1</v>
       </c>
       <c r="H155">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I155">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J155">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K155">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L155">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M155">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N155">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="O155">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P155">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q155">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R155">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S155">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T155">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="U155">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -10574,7 +10637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:21">
+    <row r="157" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -10639,51 +10702,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:21">
+    <row r="158" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>156</v>
       </c>
       <c r="B158">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C158">
         <v>0</v>
       </c>
       <c r="D158">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E158">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F158">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G158">
         <v>0</v>
       </c>
       <c r="H158">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I158">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J158">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K158">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L158">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M158">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N158">
         <v>0</v>
       </c>
       <c r="O158">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P158">
         <v>0</v>
@@ -10698,78 +10761,78 @@
         <v>0</v>
       </c>
       <c r="T158">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="U158">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>157</v>
       </c>
       <c r="B159">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C159">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D159">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E159">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F159">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G159">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H159">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I159">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J159">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K159">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L159">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M159">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N159">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="O159">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P159">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q159">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R159">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S159">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T159">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="U159">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -10834,12 +10897,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:21">
+    <row r="161" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>159</v>
       </c>
       <c r="B161">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C161">
         <v>0</v>
@@ -10848,31 +10911,31 @@
         <v>0</v>
       </c>
       <c r="E161">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F161">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G161">
         <v>1</v>
       </c>
       <c r="H161">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I161">
         <v>0</v>
       </c>
       <c r="J161">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K161">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L161">
         <v>0</v>
       </c>
       <c r="M161">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N161">
         <v>0</v>
@@ -10893,83 +10956,83 @@
         <v>0</v>
       </c>
       <c r="T161">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="U161">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>160</v>
       </c>
       <c r="B162">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C162">
         <v>0</v>
       </c>
       <c r="D162">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E162">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F162">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G162">
         <v>0</v>
       </c>
       <c r="H162">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I162">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J162">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K162">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L162">
         <v>0</v>
       </c>
       <c r="M162">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N162">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="O162">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P162">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q162">
         <v>0</v>
       </c>
       <c r="R162">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S162">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T162">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="U162">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>161</v>
       </c>
       <c r="B163">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C163">
         <v>0</v>
@@ -11029,72 +11092,72 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:21">
+    <row r="164" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>162</v>
       </c>
       <c r="B164">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C164">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D164">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E164">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F164">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G164">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H164">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I164">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J164">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K164">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L164">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M164">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N164">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="O164">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P164">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q164">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R164">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S164">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T164">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="U164">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -11159,7 +11222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:21">
+    <row r="166" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -11224,7 +11287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:21">
+    <row r="167" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -11238,37 +11301,37 @@
         <v>0</v>
       </c>
       <c r="E167">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F167">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G167">
         <v>2</v>
       </c>
       <c r="H167">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I167">
         <v>0</v>
       </c>
       <c r="J167">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K167">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L167">
         <v>0</v>
       </c>
       <c r="M167">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N167">
         <v>0</v>
       </c>
       <c r="O167">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P167">
         <v>0</v>
@@ -11283,13 +11346,13 @@
         <v>0</v>
       </c>
       <c r="T167">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="U167">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -11354,72 +11417,72 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:21">
+    <row r="169" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>167</v>
       </c>
       <c r="B169">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C169">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D169">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E169">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F169">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G169">
         <v>0</v>
       </c>
       <c r="H169">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I169">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J169">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K169">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L169">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M169">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N169">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="O169">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P169">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q169">
         <v>0</v>
       </c>
       <c r="R169">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S169">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T169">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="U169">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -11484,7 +11547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:21">
+    <row r="171" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -11495,61 +11558,61 @@
         <v>0</v>
       </c>
       <c r="D171">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E171">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F171">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G171">
         <v>0</v>
       </c>
       <c r="H171">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I171">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J171">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K171">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L171">
         <v>0</v>
       </c>
       <c r="M171">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N171">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="O171">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P171">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q171">
         <v>0</v>
       </c>
       <c r="R171">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S171">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T171">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="U171">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -11614,7 +11677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:21">
+    <row r="173" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -11622,64 +11685,64 @@
         <v>0</v>
       </c>
       <c r="C173">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D173">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E173">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F173">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G173">
         <v>-1</v>
       </c>
       <c r="H173">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I173">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J173">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K173">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L173">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M173">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N173">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="O173">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P173">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q173">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R173">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S173">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T173">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="U173">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -11690,40 +11753,40 @@
         <v>0</v>
       </c>
       <c r="D174">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E174">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F174">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G174">
         <v>0</v>
       </c>
       <c r="H174">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I174">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J174">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K174">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L174">
         <v>0</v>
       </c>
       <c r="M174">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N174">
         <v>0</v>
       </c>
       <c r="O174">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P174">
         <v>0</v>
@@ -11738,13 +11801,13 @@
         <v>0</v>
       </c>
       <c r="T174">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="U174">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -11809,7 +11872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:21">
+    <row r="176" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -11829,7 +11892,7 @@
         <v>0</v>
       </c>
       <c r="G176">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H176">
         <v>0</v>
@@ -11874,7 +11937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:21">
+    <row r="177" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -11939,72 +12002,72 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:21">
+    <row r="178" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>176</v>
       </c>
       <c r="B178">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C178">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D178">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E178">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F178">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G178">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H178">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I178">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J178">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K178">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L178">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M178">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N178">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="O178">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P178">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q178">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R178">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S178">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T178">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="U178">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="179" spans="1:21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -12069,7 +12132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:21">
+    <row r="180" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -12134,7 +12197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:21">
+    <row r="181" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -12142,7 +12205,7 @@
         <v>0</v>
       </c>
       <c r="C181">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D181">
         <v>0</v>
@@ -12154,7 +12217,7 @@
         <v>0</v>
       </c>
       <c r="G181">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H181">
         <v>0</v>
@@ -12184,7 +12247,7 @@
         <v>0</v>
       </c>
       <c r="Q181">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R181">
         <v>0</v>
@@ -12199,7 +12262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:21">
+    <row r="182" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -12264,72 +12327,72 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:21">
+    <row r="183" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>181</v>
       </c>
       <c r="B183">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C183">
         <v>0</v>
       </c>
       <c r="D183">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E183">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F183">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G183">
         <v>0</v>
       </c>
       <c r="H183">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I183">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J183">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K183">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L183">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M183">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N183">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="O183">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P183">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q183">
         <v>0</v>
       </c>
       <c r="R183">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S183">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T183">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="U183">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="184" spans="1:21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -12394,12 +12457,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:21">
+    <row r="185" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>183</v>
       </c>
       <c r="B185">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C185">
         <v>0</v>
@@ -12459,72 +12522,72 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:21">
+    <row r="186" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>184</v>
       </c>
       <c r="B186">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C186">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D186">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E186">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F186">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G186">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H186">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I186">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J186">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K186">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L186">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M186">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N186">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="O186">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P186">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q186">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R186">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S186">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T186">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="U186">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="187" spans="1:21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -12589,72 +12652,72 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:21">
+    <row r="188" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>186</v>
       </c>
       <c r="B188">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C188">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D188">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E188">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F188">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G188">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H188">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I188">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J188">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K188">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L188">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M188">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N188">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="O188">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P188">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q188">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R188">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S188">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T188">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="U188">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="189" spans="1:21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -12719,7 +12782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:21">
+    <row r="190" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -12730,40 +12793,40 @@
         <v>0</v>
       </c>
       <c r="D190">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E190">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F190">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G190">
         <v>1</v>
       </c>
       <c r="H190">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I190">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J190">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K190">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L190">
         <v>0</v>
       </c>
       <c r="M190">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N190">
         <v>0</v>
       </c>
       <c r="O190">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P190">
         <v>0</v>
@@ -12778,57 +12841,57 @@
         <v>0</v>
       </c>
       <c r="T190">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="U190">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="191" spans="1:21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>189</v>
       </c>
       <c r="B191">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C191">
         <v>0</v>
       </c>
       <c r="D191">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E191">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F191">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G191">
         <v>1</v>
       </c>
       <c r="H191">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I191">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J191">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K191">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L191">
         <v>0</v>
       </c>
       <c r="M191">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N191">
         <v>0</v>
       </c>
       <c r="O191">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P191">
         <v>0</v>
@@ -12843,13 +12906,13 @@
         <v>0</v>
       </c>
       <c r="T191">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="U191">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="192" spans="1:21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -12914,7 +12977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:21">
+    <row r="193" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -12922,7 +12985,7 @@
         <v>0</v>
       </c>
       <c r="C193">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D193">
         <v>0</v>
@@ -12934,7 +12997,7 @@
         <v>0</v>
       </c>
       <c r="G193">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H193">
         <v>0</v>
@@ -12949,28 +13012,28 @@
         <v>0</v>
       </c>
       <c r="L193">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M193">
         <v>0</v>
       </c>
       <c r="N193">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="O193">
         <v>0</v>
       </c>
       <c r="P193">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q193">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R193">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S193">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T193">
         <v>0</v>
@@ -12980,6 +13043,11 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B2:U193">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>